--- a/Pseudo Code/calculateHealthLose.xlsx
+++ b/Pseudo Code/calculateHealthLose.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Pseudo Code</t>
   </si>
@@ -71,25 +71,25 @@
     <t>else</t>
   </si>
   <si>
-    <t>generate randomHealthLose(1-3)</t>
-  </si>
-  <si>
-    <t>health = getPlayerHealth(playerID int) - randomHealthLose</t>
-  </si>
-  <si>
-    <t>getInjured(health int, playerID int)</t>
-  </si>
-  <si>
     <t>end loop</t>
   </si>
   <si>
     <t>\\ sets new player health and determines if the player is injured</t>
   </si>
   <si>
-    <t>begin if(getPosition(playerID) = "Substitute"</t>
-  </si>
-  <si>
-    <t>getPosition(playerID) = "Substitute"</t>
+    <t xml:space="preserve">   begin if(getPosition(playerID) = "Substitute"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   generate randomHealthLose(1-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   health = getPlayerHealth(playerID int) - randomHealthLose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   getInjured(health int, playerID int)</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -572,64 +572,60 @@
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
         <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>